--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 SC.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 SC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1440">
   <si>
     <t>Course</t>
   </si>
@@ -3142,6 +3142,12 @@
     <t>MOTAKIS P</t>
   </si>
   <si>
+    <t>MATH-410</t>
+  </si>
+  <si>
+    <t>TUCKER-DROB R</t>
+  </si>
+  <si>
     <t>MATH-411</t>
   </si>
   <si>
@@ -3220,6 +3226,12 @@
     <t>STILLER P</t>
   </si>
   <si>
+    <t>MATH-436</t>
+  </si>
+  <si>
+    <t>LIMA-FILHO P</t>
+  </si>
+  <si>
     <t>MATH-442</t>
   </si>
   <si>
@@ -4198,6 +4210,12 @@
     <t>SUBBARAO S</t>
   </si>
   <si>
+    <t>STAT-620</t>
+  </si>
+  <si>
+    <t>MUELLER-HARKNETT U</t>
+  </si>
+  <si>
     <t>STAT-630</t>
   </si>
   <si>
@@ -4226,6 +4244,9 @@
   </si>
   <si>
     <t>91.67%</t>
+  </si>
+  <si>
+    <t>STAT-641</t>
   </si>
   <si>
     <t>STAT-642</t>
@@ -4649,7 +4670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H867"/>
+  <dimension ref="A1:H879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11380,147 +11401,147 @@
         <v>1043</v>
       </c>
       <c r="C513" t="n">
-        <v>3.071</v>
+        <v>3.357</v>
       </c>
       <c r="D513" t="s">
+        <v>287</v>
+      </c>
+      <c r="E513" t="s">
+        <v>180</v>
+      </c>
+      <c r="F513" t="s">
+        <v>181</v>
+      </c>
+      <c r="G513" t="s">
+        <v>181</v>
+      </c>
+      <c r="H513" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" t="s">
         <v>1044</v>
-      </c>
-      <c r="E513" t="s">
-        <v>73</v>
-      </c>
-      <c r="F513" t="s">
-        <v>186</v>
-      </c>
-      <c r="G513" t="s">
-        <v>30</v>
-      </c>
-      <c r="H513" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8">
-      <c r="B514" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C514" t="n">
-        <v>3.359</v>
-      </c>
-      <c r="D514" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E514" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F514" t="s">
-        <v>860</v>
-      </c>
-      <c r="G514" t="s">
-        <v>860</v>
-      </c>
-      <c r="H514" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
-      <c r="B515" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C515" t="n">
-        <v>2.474</v>
-      </c>
-      <c r="D515" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E515" t="s">
-        <v>218</v>
-      </c>
-      <c r="F515" t="s">
-        <v>809</v>
-      </c>
-      <c r="G515" t="s">
-        <v>759</v>
-      </c>
-      <c r="H515" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="516" spans="1:8">
       <c r="B516" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="C516" t="n">
-        <v>3.467</v>
+        <v>3.071</v>
       </c>
       <c r="D516" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E516" t="s">
+        <v>73</v>
+      </c>
+      <c r="F516" t="s">
+        <v>186</v>
+      </c>
+      <c r="G516" t="s">
+        <v>30</v>
+      </c>
+      <c r="H516" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="B517" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C517" t="n">
+        <v>3.359</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F517" t="s">
+        <v>860</v>
+      </c>
+      <c r="G517" t="s">
+        <v>860</v>
+      </c>
+      <c r="H517" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="B518" t="s">
         <v>1049</v>
       </c>
-      <c r="E516" t="s">
+      <c r="C518" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="D518" t="s">
         <v>1050</v>
       </c>
-      <c r="F516" t="s">
-        <v>290</v>
-      </c>
-      <c r="G516" t="s">
-        <v>30</v>
-      </c>
-      <c r="H516" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" t="s">
-        <v>1051</v>
+      <c r="E518" t="s">
+        <v>218</v>
+      </c>
+      <c r="F518" t="s">
+        <v>809</v>
+      </c>
+      <c r="G518" t="s">
+        <v>759</v>
+      </c>
+      <c r="H518" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="519" spans="1:8">
       <c r="B519" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C519" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E519" t="s">
         <v>1052</v>
       </c>
-      <c r="C519" t="n">
-        <v>2.865</v>
-      </c>
-      <c r="D519" t="s">
-        <v>140</v>
-      </c>
-      <c r="E519" t="s">
-        <v>1053</v>
-      </c>
       <c r="F519" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="G519" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H519" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="522" spans="1:8">
       <c r="B522" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="D522" t="s">
+        <v>140</v>
+      </c>
+      <c r="E522" t="s">
         <v>1055</v>
       </c>
-      <c r="C522" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="D522" t="s">
-        <v>650</v>
-      </c>
-      <c r="E522" t="s">
-        <v>650</v>
-      </c>
       <c r="F522" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="G522" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H522" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -11533,55 +11554,55 @@
         <v>1057</v>
       </c>
       <c r="C525" t="n">
-        <v>2.5195</v>
+        <v>3.425</v>
       </c>
       <c r="D525" t="s">
-        <v>383</v>
+        <v>650</v>
       </c>
       <c r="E525" t="s">
-        <v>848</v>
+        <v>650</v>
       </c>
       <c r="F525" t="s">
-        <v>1058</v>
+        <v>265</v>
       </c>
       <c r="G525" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="H525" t="s">
-        <v>1059</v>
+        <v>30</v>
       </c>
     </row>
     <row r="527" spans="1:8">
       <c r="A527" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="B528" t="s">
-        <v>823</v>
+        <v>1059</v>
       </c>
       <c r="C528" t="n">
-        <v>3.077</v>
+        <v>2.5195</v>
       </c>
       <c r="D528" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="E528" t="s">
-        <v>650</v>
+        <v>848</v>
       </c>
       <c r="F528" t="s">
-        <v>30</v>
+        <v>1060</v>
       </c>
       <c r="G528" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="H528" t="s">
-        <v>30</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -11589,19 +11610,19 @@
         <v>823</v>
       </c>
       <c r="C531" t="n">
-        <v>3.143</v>
+        <v>3.077</v>
       </c>
       <c r="D531" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="E531" t="s">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="F531" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G531" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="H531" t="s">
         <v>30</v>
@@ -11609,86 +11630,86 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="534" spans="1:8">
       <c r="B534" t="s">
-        <v>1055</v>
+        <v>823</v>
       </c>
       <c r="C534" t="n">
-        <v>2.611</v>
+        <v>3.143</v>
       </c>
       <c r="D534" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="E534" t="s">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="F534" t="s">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="G534" t="s">
         <v>30</v>
       </c>
       <c r="H534" t="s">
-        <v>385</v>
+        <v>30</v>
       </c>
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="537" spans="1:8">
       <c r="B537" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C537" t="n">
-        <v>2.327</v>
+        <v>2.611</v>
       </c>
       <c r="D537" t="s">
-        <v>1065</v>
+        <v>291</v>
       </c>
       <c r="E537" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="F537" t="s">
-        <v>612</v>
+        <v>510</v>
       </c>
       <c r="G537" t="s">
-        <v>1065</v>
+        <v>30</v>
       </c>
       <c r="H537" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
     </row>
     <row r="539" spans="1:8">
       <c r="A539" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="540" spans="1:8">
       <c r="B540" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="D540" t="s">
         <v>1067</v>
-      </c>
-      <c r="C540" t="n">
-        <v>2.923</v>
-      </c>
-      <c r="D540" t="s">
-        <v>184</v>
       </c>
       <c r="E540" t="s">
         <v>611</v>
       </c>
       <c r="F540" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G540" t="s">
-        <v>1028</v>
+        <v>1067</v>
       </c>
       <c r="H540" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -11701,78 +11722,78 @@
         <v>1069</v>
       </c>
       <c r="C543" t="n">
-        <v>2.696</v>
+        <v>2.923</v>
       </c>
       <c r="D543" t="s">
-        <v>1070</v>
+        <v>184</v>
       </c>
       <c r="E543" t="s">
-        <v>1071</v>
+        <v>611</v>
       </c>
       <c r="F543" t="s">
-        <v>39</v>
+        <v>611</v>
       </c>
       <c r="G543" t="s">
-        <v>30</v>
+        <v>1028</v>
       </c>
       <c r="H543" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="546" spans="1:8">
       <c r="B546" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C546" t="n">
-        <v>3.6665</v>
+        <v>2.526</v>
       </c>
       <c r="D546" t="s">
-        <v>1032</v>
+        <v>809</v>
       </c>
       <c r="E546" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F546" t="s">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="G546" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="H546" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="B549" t="s">
-        <v>1043</v>
+        <v>1073</v>
       </c>
       <c r="C549" t="n">
-        <v>3.448</v>
+        <v>2.696</v>
       </c>
       <c r="D549" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E549" t="s">
         <v>1075</v>
       </c>
-      <c r="E549" t="s">
-        <v>375</v>
-      </c>
       <c r="F549" t="s">
-        <v>736</v>
+        <v>39</v>
       </c>
       <c r="G549" t="s">
         <v>30</v>
       </c>
       <c r="H549" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -11785,16 +11806,16 @@
         <v>1077</v>
       </c>
       <c r="C552" t="n">
-        <v>3.222</v>
+        <v>3.6665</v>
       </c>
       <c r="D552" t="s">
-        <v>510</v>
+        <v>1032</v>
       </c>
       <c r="E552" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F552" t="s">
-        <v>291</v>
+        <v>381</v>
       </c>
       <c r="G552" t="s">
         <v>30</v>
@@ -11810,47 +11831,47 @@
     </row>
     <row r="555" spans="1:8">
       <c r="B555" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C555" t="n">
+        <v>3.448</v>
+      </c>
+      <c r="D555" t="s">
         <v>1079</v>
       </c>
-      <c r="C555" t="n">
-        <v>2.253</v>
-      </c>
-      <c r="D555" t="s">
-        <v>1080</v>
-      </c>
       <c r="E555" t="s">
-        <v>1081</v>
+        <v>375</v>
       </c>
       <c r="F555" t="s">
-        <v>611</v>
+        <v>736</v>
       </c>
       <c r="G555" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="H555" t="s">
-        <v>1082</v>
+        <v>30</v>
       </c>
     </row>
     <row r="557" spans="1:8">
       <c r="A557" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="558" spans="1:8">
       <c r="B558" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C558" t="n">
-        <v>4</v>
+        <v>3.222</v>
       </c>
       <c r="D558" t="s">
-        <v>67</v>
+        <v>510</v>
       </c>
       <c r="E558" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="F558" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="G558" t="s">
         <v>30</v>
@@ -11861,40 +11882,40 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="561" spans="1:8">
       <c r="B561" t="s">
-        <v>770</v>
+        <v>1083</v>
       </c>
       <c r="C561" t="n">
-        <v>4</v>
+        <v>2.253</v>
       </c>
       <c r="D561" t="s">
-        <v>67</v>
+        <v>1084</v>
       </c>
       <c r="E561" t="s">
-        <v>30</v>
+        <v>1085</v>
       </c>
       <c r="F561" t="s">
-        <v>30</v>
+        <v>611</v>
       </c>
       <c r="G561" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="H561" t="s">
-        <v>30</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="564" spans="1:8">
       <c r="B564" t="s">
-        <v>802</v>
+        <v>1088</v>
       </c>
       <c r="C564" t="n">
         <v>4</v>
@@ -11917,21 +11938,21 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="567" spans="1:8">
       <c r="B567" t="s">
-        <v>1088</v>
+        <v>770</v>
       </c>
       <c r="C567" t="n">
-        <v>3.5465</v>
+        <v>4</v>
       </c>
       <c r="D567" t="s">
-        <v>1089</v>
+        <v>67</v>
       </c>
       <c r="E567" t="s">
-        <v>1090</v>
+        <v>30</v>
       </c>
       <c r="F567" t="s">
         <v>30</v>
@@ -11945,24 +11966,24 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="570" spans="1:8">
       <c r="B570" t="s">
-        <v>1092</v>
+        <v>802</v>
       </c>
       <c r="C570" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D570" t="s">
-        <v>544</v>
+        <v>67</v>
       </c>
       <c r="E570" t="s">
-        <v>544</v>
+        <v>30</v>
       </c>
       <c r="F570" t="s">
-        <v>1093</v>
+        <v>30</v>
       </c>
       <c r="G570" t="s">
         <v>30</v>
@@ -11973,21 +11994,21 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="573" spans="1:8">
       <c r="B573" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C573" t="n">
-        <v>3.8</v>
+        <v>3.5465</v>
       </c>
       <c r="D573" t="s">
-        <v>619</v>
+        <v>1093</v>
       </c>
       <c r="E573" t="s">
-        <v>312</v>
+        <v>1094</v>
       </c>
       <c r="F573" t="s">
         <v>30</v>
@@ -12001,24 +12022,24 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="576" spans="1:8">
       <c r="B576" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C576" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D576" t="s">
+        <v>544</v>
+      </c>
+      <c r="E576" t="s">
+        <v>544</v>
+      </c>
+      <c r="F576" t="s">
         <v>1097</v>
-      </c>
-      <c r="C576" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D576" t="s">
-        <v>144</v>
-      </c>
-      <c r="E576" t="s">
-        <v>227</v>
-      </c>
-      <c r="F576" t="s">
-        <v>215</v>
       </c>
       <c r="G576" t="s">
         <v>30</v>
@@ -12037,95 +12058,95 @@
         <v>1099</v>
       </c>
       <c r="C579" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D579" t="s">
+        <v>619</v>
+      </c>
+      <c r="E579" t="s">
+        <v>312</v>
+      </c>
+      <c r="F579" t="s">
+        <v>30</v>
+      </c>
+      <c r="G579" t="s">
+        <v>30</v>
+      </c>
+      <c r="H579" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="B582" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C582" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D582" t="s">
+        <v>144</v>
+      </c>
+      <c r="E582" t="s">
+        <v>227</v>
+      </c>
+      <c r="F582" t="s">
+        <v>215</v>
+      </c>
+      <c r="G582" t="s">
+        <v>30</v>
+      </c>
+      <c r="H582" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="B585" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C585" t="n">
         <v>3.714</v>
       </c>
-      <c r="D579" t="s">
+      <c r="D585" t="s">
         <v>640</v>
       </c>
-      <c r="E579" t="s">
+      <c r="E585" t="s">
         <v>180</v>
       </c>
-      <c r="F579" t="s">
-        <v>30</v>
-      </c>
-      <c r="G579" t="s">
-        <v>30</v>
-      </c>
-      <c r="H579" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8">
-      <c r="B580" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C580" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="D580" t="s">
-        <v>611</v>
-      </c>
-      <c r="E580" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F580" t="s">
-        <v>264</v>
-      </c>
-      <c r="G580" t="s">
-        <v>30</v>
-      </c>
-      <c r="H580" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8">
-      <c r="A582" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="583" spans="1:8">
-      <c r="B583" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C583" t="n">
-        <v>4</v>
-      </c>
-      <c r="D583" t="s">
-        <v>67</v>
-      </c>
-      <c r="E583" t="s">
-        <v>30</v>
-      </c>
-      <c r="F583" t="s">
-        <v>30</v>
-      </c>
-      <c r="G583" t="s">
-        <v>30</v>
-      </c>
-      <c r="H583" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8">
-      <c r="A585" t="s">
-        <v>1103</v>
+      <c r="F585" t="s">
+        <v>30</v>
+      </c>
+      <c r="G585" t="s">
+        <v>30</v>
+      </c>
+      <c r="H585" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="586" spans="1:8">
       <c r="B586" t="s">
-        <v>1038</v>
+        <v>1104</v>
       </c>
       <c r="C586" t="n">
-        <v>3.308</v>
+        <v>3.154</v>
       </c>
       <c r="D586" t="s">
-        <v>263</v>
+        <v>611</v>
       </c>
       <c r="E586" t="s">
         <v>1027</v>
       </c>
       <c r="F586" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G586" t="s">
         <v>30</v>
@@ -12136,21 +12157,21 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="589" spans="1:8">
       <c r="B589" t="s">
-        <v>1034</v>
+        <v>1106</v>
       </c>
       <c r="C589" t="n">
-        <v>3.933</v>
+        <v>4</v>
       </c>
       <c r="D589" t="s">
-        <v>1105</v>
+        <v>67</v>
       </c>
       <c r="E589" t="s">
-        <v>1093</v>
+        <v>30</v>
       </c>
       <c r="F589" t="s">
         <v>30</v>
@@ -12164,24 +12185,24 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="592" spans="1:8">
       <c r="B592" t="s">
-        <v>1107</v>
+        <v>1038</v>
       </c>
       <c r="C592" t="n">
-        <v>3.273</v>
+        <v>3.308</v>
       </c>
       <c r="D592" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="E592" t="s">
-        <v>531</v>
+        <v>1027</v>
       </c>
       <c r="F592" t="s">
-        <v>615</v>
+        <v>265</v>
       </c>
       <c r="G592" t="s">
         <v>30</v>
@@ -12197,16 +12218,16 @@
     </row>
     <row r="595" spans="1:8">
       <c r="B595" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C595" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="D595" t="s">
         <v>1109</v>
       </c>
-      <c r="C595" t="n">
-        <v>4</v>
-      </c>
-      <c r="D595" t="s">
-        <v>67</v>
-      </c>
       <c r="E595" t="s">
-        <v>30</v>
+        <v>1097</v>
       </c>
       <c r="F595" t="s">
         <v>30</v>
@@ -12228,19 +12249,19 @@
         <v>1111</v>
       </c>
       <c r="C598" t="n">
-        <v>3.556</v>
+        <v>3.273</v>
       </c>
       <c r="D598" t="s">
-        <v>1112</v>
+        <v>227</v>
       </c>
       <c r="E598" t="s">
-        <v>290</v>
+        <v>531</v>
       </c>
       <c r="F598" t="s">
-        <v>30</v>
+        <v>615</v>
       </c>
       <c r="G598" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="H598" t="s">
         <v>30</v>
@@ -12248,12 +12269,12 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="601" spans="1:8">
       <c r="B601" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C601" t="n">
         <v>4</v>
@@ -12276,27 +12297,27 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="604" spans="1:8">
       <c r="B604" t="s">
-        <v>1052</v>
+        <v>1115</v>
       </c>
       <c r="C604" t="n">
-        <v>3.4</v>
+        <v>3.556</v>
       </c>
       <c r="D604" t="s">
-        <v>297</v>
+        <v>1116</v>
       </c>
       <c r="E604" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="F604" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="G604" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="H604" t="s">
         <v>30</v>
@@ -12304,21 +12325,21 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="607" spans="1:8">
       <c r="B607" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C607" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D607" t="s">
-        <v>619</v>
+        <v>67</v>
       </c>
       <c r="E607" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="F607" t="s">
         <v>30</v>
@@ -12332,27 +12353,27 @@
     </row>
     <row r="609" spans="1:8">
       <c r="A609" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="610" spans="1:8">
       <c r="B610" t="s">
-        <v>1119</v>
+        <v>1054</v>
       </c>
       <c r="C610" t="n">
-        <v>3.464</v>
+        <v>3.4</v>
       </c>
       <c r="D610" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="E610" t="s">
-        <v>1120</v>
+        <v>215</v>
       </c>
       <c r="F610" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="G610" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="H610" t="s">
         <v>30</v>
@@ -12360,24 +12381,24 @@
     </row>
     <row r="612" spans="1:8">
       <c r="A612" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="613" spans="1:8">
       <c r="B613" t="s">
-        <v>916</v>
+        <v>1121</v>
       </c>
       <c r="C613" t="n">
-        <v>2.842</v>
+        <v>3.8</v>
       </c>
       <c r="D613" t="s">
-        <v>218</v>
+        <v>619</v>
       </c>
       <c r="E613" t="s">
-        <v>809</v>
+        <v>312</v>
       </c>
       <c r="F613" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="G613" t="s">
         <v>30</v>
@@ -12396,16 +12417,16 @@
         <v>1123</v>
       </c>
       <c r="C616" t="n">
-        <v>4</v>
+        <v>3.464</v>
       </c>
       <c r="D616" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="E616" t="s">
-        <v>30</v>
+        <v>1124</v>
       </c>
       <c r="F616" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="G616" t="s">
         <v>30</v>
@@ -12416,188 +12437,188 @@
     </row>
     <row r="618" spans="1:8">
       <c r="A618" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="619" spans="1:8">
       <c r="B619" t="s">
-        <v>1125</v>
+        <v>916</v>
       </c>
       <c r="C619" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="D619" t="s">
+        <v>218</v>
+      </c>
+      <c r="E619" t="s">
+        <v>809</v>
+      </c>
+      <c r="F619" t="s">
+        <v>244</v>
+      </c>
+      <c r="G619" t="s">
+        <v>30</v>
+      </c>
+      <c r="H619" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="B622" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C622" t="n">
         <v>4</v>
       </c>
-      <c r="D619" t="s">
+      <c r="D622" t="s">
         <v>67</v>
       </c>
-      <c r="E619" t="s">
-        <v>30</v>
-      </c>
-      <c r="F619" t="s">
-        <v>30</v>
-      </c>
-      <c r="G619" t="s">
-        <v>30</v>
-      </c>
-      <c r="H619" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8">
-      <c r="B620" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C620" t="n">
+      <c r="E622" t="s">
+        <v>30</v>
+      </c>
+      <c r="F622" t="s">
+        <v>30</v>
+      </c>
+      <c r="G622" t="s">
+        <v>30</v>
+      </c>
+      <c r="H622" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="B625" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C625" t="n">
         <v>4</v>
       </c>
-      <c r="D620" t="s">
+      <c r="D625" t="s">
         <v>67</v>
       </c>
-      <c r="E620" t="s">
-        <v>30</v>
-      </c>
-      <c r="F620" t="s">
-        <v>30</v>
-      </c>
-      <c r="G620" t="s">
-        <v>30</v>
-      </c>
-      <c r="H620" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="622" spans="1:8">
-      <c r="A622" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8">
-      <c r="B623" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C623" t="n">
+      <c r="E625" t="s">
+        <v>30</v>
+      </c>
+      <c r="F625" t="s">
+        <v>30</v>
+      </c>
+      <c r="G625" t="s">
+        <v>30</v>
+      </c>
+      <c r="H625" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="B626" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C626" t="n">
         <v>4</v>
       </c>
-      <c r="D623" t="s">
+      <c r="D626" t="s">
         <v>67</v>
       </c>
-      <c r="E623" t="s">
-        <v>30</v>
-      </c>
-      <c r="F623" t="s">
-        <v>30</v>
-      </c>
-      <c r="G623" t="s">
-        <v>30</v>
-      </c>
-      <c r="H623" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8">
-      <c r="B624" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C624" t="n">
+      <c r="E626" t="s">
+        <v>30</v>
+      </c>
+      <c r="F626" t="s">
+        <v>30</v>
+      </c>
+      <c r="G626" t="s">
+        <v>30</v>
+      </c>
+      <c r="H626" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="B629" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C629" t="n">
         <v>4</v>
       </c>
-      <c r="D624" t="s">
+      <c r="D629" t="s">
         <v>67</v>
       </c>
-      <c r="E624" t="s">
-        <v>30</v>
-      </c>
-      <c r="F624" t="s">
-        <v>30</v>
-      </c>
-      <c r="G624" t="s">
-        <v>30</v>
-      </c>
-      <c r="H624" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="626" spans="1:8">
-      <c r="A626" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="627" spans="1:8">
-      <c r="B627" t="s">
+      <c r="E629" t="s">
+        <v>30</v>
+      </c>
+      <c r="F629" t="s">
+        <v>30</v>
+      </c>
+      <c r="G629" t="s">
+        <v>30</v>
+      </c>
+      <c r="H629" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="B630" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C630" t="n">
+        <v>4</v>
+      </c>
+      <c r="D630" t="s">
+        <v>67</v>
+      </c>
+      <c r="E630" t="s">
+        <v>30</v>
+      </c>
+      <c r="F630" t="s">
+        <v>30</v>
+      </c>
+      <c r="G630" t="s">
+        <v>30</v>
+      </c>
+      <c r="H630" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="B633" t="s">
         <v>1007</v>
       </c>
-      <c r="C627" t="n">
+      <c r="C633" t="n">
         <v>3.818</v>
       </c>
-      <c r="D627" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E627" t="s">
-        <v>30</v>
-      </c>
-      <c r="F627" t="s">
+      <c r="D633" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E633" t="s">
+        <v>30</v>
+      </c>
+      <c r="F633" t="s">
         <v>630</v>
       </c>
-      <c r="G627" t="s">
-        <v>30</v>
-      </c>
-      <c r="H627" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="628" spans="1:8">
-      <c r="B628" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C628" t="n">
-        <v>4</v>
-      </c>
-      <c r="D628" t="s">
-        <v>67</v>
-      </c>
-      <c r="E628" t="s">
-        <v>30</v>
-      </c>
-      <c r="F628" t="s">
-        <v>30</v>
-      </c>
-      <c r="G628" t="s">
-        <v>30</v>
-      </c>
-      <c r="H628" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="630" spans="1:8">
-      <c r="A630" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8">
-      <c r="B631" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C631" t="n">
-        <v>4</v>
-      </c>
-      <c r="D631" t="s">
-        <v>67</v>
-      </c>
-      <c r="E631" t="s">
-        <v>30</v>
-      </c>
-      <c r="F631" t="s">
-        <v>30</v>
-      </c>
-      <c r="G631" t="s">
-        <v>30</v>
-      </c>
-      <c r="H631" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8">
-      <c r="A633" t="s">
-        <v>1135</v>
+      <c r="G633" t="s">
+        <v>30</v>
+      </c>
+      <c r="H633" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -12605,16 +12626,16 @@
         <v>1136</v>
       </c>
       <c r="C634" t="n">
-        <v>3.389</v>
+        <v>4</v>
       </c>
       <c r="D634" t="s">
-        <v>438</v>
+        <v>67</v>
       </c>
       <c r="E634" t="s">
-        <v>510</v>
+        <v>30</v>
       </c>
       <c r="F634" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="G634" t="s">
         <v>30</v>
@@ -12633,16 +12654,16 @@
         <v>1138</v>
       </c>
       <c r="C637" t="n">
-        <v>3.71</v>
+        <v>4</v>
       </c>
       <c r="D637" t="s">
-        <v>1139</v>
+        <v>67</v>
       </c>
       <c r="E637" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="F637" t="s">
-        <v>1140</v>
+        <v>30</v>
       </c>
       <c r="G637" t="s">
         <v>30</v>
@@ -12653,24 +12674,24 @@
     </row>
     <row r="639" spans="1:8">
       <c r="A639" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="640" spans="1:8">
       <c r="B640" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C640" t="n">
-        <v>3.933</v>
+        <v>3.389</v>
       </c>
       <c r="D640" t="s">
-        <v>1105</v>
+        <v>438</v>
       </c>
       <c r="E640" t="s">
-        <v>1093</v>
+        <v>510</v>
       </c>
       <c r="F640" t="s">
-        <v>30</v>
+        <v>381</v>
       </c>
       <c r="G640" t="s">
         <v>30</v>
@@ -12681,7 +12702,7 @@
     </row>
     <row r="642" spans="1:8">
       <c r="A642" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -12689,16 +12710,16 @@
         <v>1142</v>
       </c>
       <c r="C643" t="n">
-        <v>3.406</v>
+        <v>3.71</v>
       </c>
       <c r="D643" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E643" t="s">
+        <v>159</v>
+      </c>
+      <c r="F643" t="s">
         <v>1144</v>
-      </c>
-      <c r="E643" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F643" t="s">
-        <v>187</v>
       </c>
       <c r="G643" t="s">
         <v>30</v>
@@ -12709,21 +12730,21 @@
     </row>
     <row r="645" spans="1:8">
       <c r="A645" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="646" spans="1:8">
       <c r="B646" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C646" t="n">
-        <v>3.778</v>
+        <v>3.933</v>
       </c>
       <c r="D646" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E646" t="s">
-        <v>291</v>
+        <v>1097</v>
       </c>
       <c r="F646" t="s">
         <v>30</v>
@@ -12737,27 +12758,27 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="649" spans="1:8">
       <c r="B649" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C649" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E649" t="s">
         <v>1149</v>
       </c>
-      <c r="C649" t="n">
-        <v>3.234</v>
-      </c>
-      <c r="D649" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E649" t="s">
-        <v>602</v>
-      </c>
       <c r="F649" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="G649" t="s">
-        <v>464</v>
+        <v>30</v>
       </c>
       <c r="H649" t="s">
         <v>30</v>
@@ -12765,106 +12786,106 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="652" spans="1:8">
       <c r="B652" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C652" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E652" t="s">
+        <v>291</v>
+      </c>
+      <c r="F652" t="s">
+        <v>30</v>
+      </c>
+      <c r="G652" t="s">
+        <v>30</v>
+      </c>
+      <c r="H652" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" t="s">
         <v>1152</v>
       </c>
-      <c r="C652" t="n">
+    </row>
+    <row r="655" spans="1:8">
+      <c r="B655" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C655" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E655" t="s">
+        <v>602</v>
+      </c>
+      <c r="F655" t="s">
+        <v>50</v>
+      </c>
+      <c r="G655" t="s">
+        <v>464</v>
+      </c>
+      <c r="H655" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="B658" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C658" t="n">
         <v>4</v>
       </c>
-      <c r="D652" t="s">
+      <c r="D658" t="s">
         <v>67</v>
       </c>
-      <c r="E652" t="s">
-        <v>30</v>
-      </c>
-      <c r="F652" t="s">
-        <v>30</v>
-      </c>
-      <c r="G652" t="s">
-        <v>30</v>
-      </c>
-      <c r="H652" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="653" spans="1:8">
-      <c r="B653" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C653" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="D653" t="s">
-        <v>11</v>
-      </c>
-      <c r="E653" t="s">
-        <v>11</v>
-      </c>
-      <c r="F653" t="s">
-        <v>185</v>
-      </c>
-      <c r="G653" t="s">
-        <v>187</v>
-      </c>
-      <c r="H653" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="655" spans="1:8">
-      <c r="A655" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="656" spans="1:8">
-      <c r="B656" t="s">
-        <v>235</v>
-      </c>
-      <c r="C656" t="n">
-        <v>3</v>
-      </c>
-      <c r="D656" t="s">
-        <v>184</v>
-      </c>
-      <c r="E656" t="s">
-        <v>510</v>
-      </c>
-      <c r="F656" t="s">
-        <v>290</v>
-      </c>
-      <c r="G656" t="s">
-        <v>290</v>
-      </c>
-      <c r="H656" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="658" spans="1:8">
-      <c r="A658" t="s">
-        <v>1155</v>
+      <c r="E658" t="s">
+        <v>30</v>
+      </c>
+      <c r="F658" t="s">
+        <v>30</v>
+      </c>
+      <c r="G658" t="s">
+        <v>30</v>
+      </c>
+      <c r="H658" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="659" spans="1:8">
       <c r="B659" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="C659" t="n">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="D659" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E659" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F659" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="G659" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="H659" t="s">
         <v>30</v>
@@ -12872,27 +12893,27 @@
     </row>
     <row r="661" spans="1:8">
       <c r="A661" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="662" spans="1:8">
       <c r="B662" t="s">
-        <v>1157</v>
+        <v>235</v>
       </c>
       <c r="C662" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D662" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="E662" t="s">
-        <v>30</v>
+        <v>510</v>
       </c>
       <c r="F662" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="G662" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="H662" t="s">
         <v>30</v>
@@ -12900,49 +12921,49 @@
     </row>
     <row r="664" spans="1:8">
       <c r="A664" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="665" spans="1:8">
       <c r="B665" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C665" t="n">
-        <v>3.694</v>
+        <v>4</v>
       </c>
       <c r="D665" t="s">
-        <v>1160</v>
+        <v>67</v>
       </c>
       <c r="E665" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F665" t="s">
-        <v>1161</v>
+        <v>30</v>
       </c>
       <c r="G665" t="s">
         <v>30</v>
       </c>
       <c r="H665" t="s">
-        <v>1162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="667" spans="1:8">
       <c r="A667" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="668" spans="1:8">
       <c r="B668" t="s">
-        <v>41</v>
+        <v>1161</v>
       </c>
       <c r="C668" t="n">
-        <v>3.318</v>
+        <v>4</v>
       </c>
       <c r="D668" t="s">
-        <v>446</v>
+        <v>67</v>
       </c>
       <c r="E668" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="F668" t="s">
         <v>30</v>
@@ -12951,623 +12972,623 @@
         <v>30</v>
       </c>
       <c r="H668" t="s">
-        <v>616</v>
+        <v>30</v>
       </c>
     </row>
     <row r="670" spans="1:8">
       <c r="A670" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="671" spans="1:8">
       <c r="B671" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C671" t="n">
+        <v>3.694</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E671" t="s">
+        <v>75</v>
+      </c>
+      <c r="F671" t="s">
         <v>1165</v>
       </c>
-      <c r="C671" t="n">
-        <v>2.6016</v>
-      </c>
-      <c r="D671" t="s">
+      <c r="G671" t="s">
+        <v>30</v>
+      </c>
+      <c r="H671" t="s">
         <v>1166</v>
       </c>
-      <c r="E671" t="s">
+    </row>
+    <row r="673" spans="1:8">
+      <c r="A673" t="s">
         <v>1167</v>
       </c>
-      <c r="F671" t="s">
+    </row>
+    <row r="674" spans="1:8">
+      <c r="B674" t="s">
+        <v>41</v>
+      </c>
+      <c r="C674" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="D674" t="s">
+        <v>446</v>
+      </c>
+      <c r="E674" t="s">
+        <v>227</v>
+      </c>
+      <c r="F674" t="s">
+        <v>30</v>
+      </c>
+      <c r="G674" t="s">
+        <v>30</v>
+      </c>
+      <c r="H674" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="A676" t="s">
         <v>1168</v>
-      </c>
-      <c r="G671" t="s">
-        <v>633</v>
-      </c>
-      <c r="H671" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="672" spans="1:8">
-      <c r="B672" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C672" t="n">
-        <v>2.5394</v>
-      </c>
-      <c r="D672" t="s">
-        <v>218</v>
-      </c>
-      <c r="E672" t="s">
-        <v>195</v>
-      </c>
-      <c r="F672" t="s">
-        <v>245</v>
-      </c>
-      <c r="G672" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H672" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="673" spans="1:8">
-      <c r="B673" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C673" t="n">
-        <v>2.612</v>
-      </c>
-      <c r="D673" t="s">
-        <v>789</v>
-      </c>
-      <c r="E673" t="s">
-        <v>787</v>
-      </c>
-      <c r="F673" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G673" t="s">
-        <v>44</v>
-      </c>
-      <c r="H673" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="675" spans="1:8">
-      <c r="A675" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="676" spans="1:8">
-      <c r="B676" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C676" t="n">
-        <v>2.6577</v>
-      </c>
-      <c r="D676" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E676" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F676" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G676" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H676" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="677" spans="1:8">
       <c r="B677" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C677" t="n">
+        <v>2.6016</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F677" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G677" t="s">
+        <v>633</v>
+      </c>
+      <c r="H677" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="B678" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C678" t="n">
+        <v>2.5394</v>
+      </c>
+      <c r="D678" t="s">
+        <v>218</v>
+      </c>
+      <c r="E678" t="s">
+        <v>195</v>
+      </c>
+      <c r="F678" t="s">
+        <v>245</v>
+      </c>
+      <c r="G678" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H678" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="B679" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C679" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="D679" t="s">
+        <v>789</v>
+      </c>
+      <c r="E679" t="s">
+        <v>787</v>
+      </c>
+      <c r="F679" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G679" t="s">
+        <v>44</v>
+      </c>
+      <c r="H679" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="B682" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C682" t="n">
+        <v>2.6577</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E682" t="s">
         <v>1182</v>
       </c>
-      <c r="C677" t="n">
-        <v>2.8405</v>
-      </c>
-      <c r="D677" t="s">
+      <c r="F682" t="s">
         <v>1183</v>
       </c>
-      <c r="E677" t="s">
+      <c r="G682" t="s">
         <v>1184</v>
       </c>
-      <c r="F677" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G677" t="s">
-        <v>202</v>
-      </c>
-      <c r="H677" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="679" spans="1:8">
-      <c r="A679" t="s">
+      <c r="H682" t="s">
         <v>1185</v>
-      </c>
-    </row>
-    <row r="680" spans="1:8">
-      <c r="B680" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C680" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D680" t="s">
-        <v>144</v>
-      </c>
-      <c r="E680" t="s">
-        <v>529</v>
-      </c>
-      <c r="F680" t="s">
-        <v>30</v>
-      </c>
-      <c r="G680" t="s">
-        <v>30</v>
-      </c>
-      <c r="H680" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="682" spans="1:8">
-      <c r="A682" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="683" spans="1:8">
       <c r="B683" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C683" t="n">
+        <v>2.8405</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E683" t="s">
         <v>1188</v>
       </c>
-      <c r="C683" t="n">
-        <v>2.8368</v>
-      </c>
-      <c r="D683" t="s">
+      <c r="F683" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G683" t="s">
+        <v>202</v>
+      </c>
+      <c r="H683" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="A685" t="s">
         <v>1189</v>
-      </c>
-      <c r="E683" t="s">
-        <v>80</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G683" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H683" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8">
-      <c r="B684" t="s">
-        <v>36</v>
-      </c>
-      <c r="C684" t="n">
-        <v>2.9248</v>
-      </c>
-      <c r="D684" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E684" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F684" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G684" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H684" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="685" spans="1:8">
-      <c r="B685" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C685" t="n">
-        <v>2.4604</v>
-      </c>
-      <c r="D685" t="s">
-        <v>319</v>
-      </c>
-      <c r="E685" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F685" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G685" t="s">
-        <v>797</v>
-      </c>
-      <c r="H685" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="686" spans="1:8">
       <c r="B686" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C686" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D686" t="s">
+        <v>144</v>
+      </c>
+      <c r="E686" t="s">
+        <v>529</v>
+      </c>
+      <c r="F686" t="s">
+        <v>30</v>
+      </c>
+      <c r="G686" t="s">
+        <v>30</v>
+      </c>
+      <c r="H686" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="B689" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C689" t="n">
+        <v>2.8368</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E689" t="s">
+        <v>80</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G689" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H689" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="B690" t="s">
+        <v>36</v>
+      </c>
+      <c r="C690" t="n">
+        <v>2.9248</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E690" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F690" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G690" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H690" t="s">
         <v>1200</v>
-      </c>
-      <c r="C686" t="n">
-        <v>2.1744</v>
-      </c>
-      <c r="D686" t="s">
-        <v>881</v>
-      </c>
-      <c r="E686" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F686" t="s">
-        <v>881</v>
-      </c>
-      <c r="G686" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H686" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="687" spans="1:8">
-      <c r="B687" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C687" t="n">
-        <v>2.433</v>
-      </c>
-      <c r="D687" t="s">
-        <v>381</v>
-      </c>
-      <c r="E687" t="s">
-        <v>227</v>
-      </c>
-      <c r="F687" t="s">
-        <v>11</v>
-      </c>
-      <c r="G687" t="s">
-        <v>486</v>
-      </c>
-      <c r="H687" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="688" spans="1:8">
-      <c r="B688" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C688" t="n">
-        <v>2.7725</v>
-      </c>
-      <c r="D688" t="s">
-        <v>155</v>
-      </c>
-      <c r="E688" t="s">
-        <v>621</v>
-      </c>
-      <c r="F688" t="s">
-        <v>312</v>
-      </c>
-      <c r="G688" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H688" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="690" spans="1:8">
-      <c r="A690" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="691" spans="1:8">
       <c r="B691" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C691" t="n">
-        <v>2.33</v>
+        <v>2.4604</v>
       </c>
       <c r="D691" t="s">
-        <v>1208</v>
+        <v>319</v>
       </c>
       <c r="E691" t="s">
-        <v>442</v>
+        <v>1202</v>
       </c>
       <c r="F691" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="G691" t="s">
-        <v>187</v>
+        <v>797</v>
       </c>
       <c r="H691" t="s">
-        <v>152</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="692" spans="1:8">
       <c r="B692" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C692" t="n">
-        <v>2.3658</v>
+        <v>2.1744</v>
       </c>
       <c r="D692" t="s">
-        <v>1211</v>
+        <v>881</v>
       </c>
       <c r="E692" t="s">
-        <v>1212</v>
+        <v>1084</v>
       </c>
       <c r="F692" t="s">
-        <v>1213</v>
+        <v>881</v>
       </c>
       <c r="G692" t="s">
-        <v>1214</v>
+        <v>1086</v>
       </c>
       <c r="H692" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="693" spans="1:8">
       <c r="B693" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="C693" t="n">
-        <v>2.5083</v>
+        <v>2.433</v>
       </c>
       <c r="D693" t="s">
-        <v>1217</v>
+        <v>381</v>
       </c>
       <c r="E693" t="s">
-        <v>1218</v>
+        <v>227</v>
       </c>
       <c r="F693" t="s">
-        <v>1219</v>
+        <v>11</v>
       </c>
       <c r="G693" t="s">
-        <v>1220</v>
+        <v>486</v>
       </c>
       <c r="H693" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
     </row>
     <row r="694" spans="1:8">
       <c r="B694" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="C694" t="n">
-        <v>2.2057</v>
+        <v>2.7725</v>
       </c>
       <c r="D694" t="s">
-        <v>764</v>
+        <v>155</v>
       </c>
       <c r="E694" t="s">
-        <v>1222</v>
+        <v>621</v>
       </c>
       <c r="F694" t="s">
-        <v>678</v>
+        <v>312</v>
       </c>
       <c r="G694" t="s">
-        <v>679</v>
+        <v>1208</v>
       </c>
       <c r="H694" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="695" spans="1:8">
-      <c r="B695" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C695" t="n">
-        <v>2.2797</v>
-      </c>
-      <c r="D695" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E695" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F695" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G695" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H695" t="s">
-        <v>260</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="696" spans="1:8">
-      <c r="B696" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C696" t="n">
-        <v>2.236</v>
-      </c>
-      <c r="D696" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E696" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F696" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G696" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H696" t="s">
-        <v>1234</v>
+      <c r="A696" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="697" spans="1:8">
       <c r="B697" t="s">
-        <v>1235</v>
+        <v>1211</v>
       </c>
       <c r="C697" t="n">
-        <v>2.319</v>
+        <v>2.33</v>
       </c>
       <c r="D697" t="s">
-        <v>1236</v>
+        <v>1212</v>
       </c>
       <c r="E697" t="s">
-        <v>1237</v>
+        <v>442</v>
       </c>
       <c r="F697" t="s">
-        <v>143</v>
+        <v>1213</v>
       </c>
       <c r="G697" t="s">
-        <v>1238</v>
+        <v>187</v>
       </c>
       <c r="H697" t="s">
-        <v>1239</v>
+        <v>152</v>
       </c>
     </row>
     <row r="698" spans="1:8">
       <c r="B698" t="s">
-        <v>1240</v>
+        <v>1214</v>
       </c>
       <c r="C698" t="n">
-        <v>2.3523</v>
+        <v>2.3658</v>
       </c>
       <c r="D698" t="s">
-        <v>1241</v>
+        <v>1215</v>
       </c>
       <c r="E698" t="s">
-        <v>1242</v>
+        <v>1216</v>
       </c>
       <c r="F698" t="s">
-        <v>694</v>
+        <v>1217</v>
       </c>
       <c r="G698" t="s">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="H698" t="s">
-        <v>1244</v>
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8">
+      <c r="B699" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C699" t="n">
+        <v>2.5083</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F699" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G699" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H699" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="700" spans="1:8">
-      <c r="A700" t="s">
-        <v>1245</v>
+      <c r="B700" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C700" t="n">
+        <v>2.2057</v>
+      </c>
+      <c r="D700" t="s">
+        <v>764</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F700" t="s">
+        <v>678</v>
+      </c>
+      <c r="G700" t="s">
+        <v>679</v>
+      </c>
+      <c r="H700" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="701" spans="1:8">
       <c r="B701" t="s">
-        <v>1246</v>
+        <v>1228</v>
       </c>
       <c r="C701" t="n">
-        <v>2.2</v>
+        <v>2.2797</v>
       </c>
       <c r="D701" t="s">
-        <v>154</v>
+        <v>1229</v>
       </c>
       <c r="E701" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F701" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G701" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H701" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8">
+      <c r="B702" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C702" t="n">
+        <v>2.236</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F702" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G702" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H702" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8">
+      <c r="B703" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C703" t="n">
+        <v>2.319</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F703" t="s">
         <v>143</v>
       </c>
-      <c r="F701" t="s">
-        <v>621</v>
-      </c>
-      <c r="G701" t="s">
-        <v>146</v>
-      </c>
-      <c r="H701" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="703" spans="1:8">
-      <c r="A703" t="s">
-        <v>1247</v>
+      <c r="G703" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H703" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="704" spans="1:8">
       <c r="B704" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C704" t="n">
+        <v>2.3523</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F704" t="s">
+        <v>694</v>
+      </c>
+      <c r="G704" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H704" t="s">
         <v>1248</v>
-      </c>
-      <c r="C704" t="n">
-        <v>3.3295</v>
-      </c>
-      <c r="D704" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E704" t="s">
-        <v>354</v>
-      </c>
-      <c r="F704" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G704" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H704" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="706" spans="1:8">
       <c r="A706" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="707" spans="1:8">
       <c r="B707" t="s">
-        <v>14</v>
+        <v>1250</v>
       </c>
       <c r="C707" t="n">
-        <v>3.786</v>
+        <v>2.2</v>
       </c>
       <c r="D707" t="s">
-        <v>1254</v>
+        <v>154</v>
       </c>
       <c r="E707" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="F707" t="s">
-        <v>30</v>
+        <v>621</v>
       </c>
       <c r="G707" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="H707" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="709" spans="1:8">
       <c r="A709" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="710" spans="1:8">
       <c r="B710" t="s">
-        <v>1182</v>
+        <v>1252</v>
       </c>
       <c r="C710" t="n">
-        <v>4</v>
+        <v>3.3295</v>
       </c>
       <c r="D710" t="s">
-        <v>67</v>
+        <v>1253</v>
       </c>
       <c r="E710" t="s">
-        <v>30</v>
+        <v>354</v>
       </c>
       <c r="F710" t="s">
-        <v>30</v>
+        <v>1254</v>
       </c>
       <c r="G710" t="s">
-        <v>30</v>
+        <v>1255</v>
       </c>
       <c r="H710" t="s">
-        <v>30</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="712" spans="1:8">
       <c r="A712" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="713" spans="1:8">
       <c r="B713" t="s">
-        <v>1257</v>
+        <v>14</v>
       </c>
       <c r="C713" t="n">
-        <v>3.667</v>
+        <v>3.786</v>
       </c>
       <c r="D713" t="s">
-        <v>289</v>
+        <v>1258</v>
       </c>
       <c r="E713" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F713" t="s">
         <v>30</v>
@@ -13576,32 +13597,32 @@
         <v>30</v>
       </c>
       <c r="H713" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
     </row>
     <row r="715" spans="1:8">
       <c r="A715" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="716" spans="1:8">
       <c r="B716" t="s">
-        <v>1259</v>
+        <v>1186</v>
       </c>
       <c r="C716" t="n">
-        <v>2.655</v>
+        <v>4</v>
       </c>
       <c r="D716" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E716" t="s">
-        <v>1260</v>
+        <v>30</v>
       </c>
       <c r="F716" t="s">
-        <v>1260</v>
+        <v>30</v>
       </c>
       <c r="G716" t="s">
-        <v>736</v>
+        <v>30</v>
       </c>
       <c r="H716" t="s">
         <v>30</v>
@@ -13609,192 +13630,192 @@
     </row>
     <row r="718" spans="1:8">
       <c r="A718" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="719" spans="1:8">
       <c r="B719" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C719" t="n">
-        <v>2.657</v>
+        <v>3.667</v>
       </c>
       <c r="D719" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="E719" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="F719" t="s">
-        <v>607</v>
+        <v>30</v>
       </c>
       <c r="G719" t="s">
-        <v>1263</v>
+        <v>30</v>
       </c>
       <c r="H719" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
     </row>
     <row r="721" spans="1:8">
       <c r="A721" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="722" spans="1:8">
       <c r="B722" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C722" t="n">
-        <v>2.171</v>
+        <v>2.655</v>
       </c>
       <c r="D722" t="s">
-        <v>237</v>
+        <v>377</v>
       </c>
       <c r="E722" t="s">
-        <v>606</v>
+        <v>1264</v>
       </c>
       <c r="F722" t="s">
-        <v>253</v>
+        <v>1264</v>
       </c>
       <c r="G722" t="s">
-        <v>238</v>
+        <v>736</v>
       </c>
       <c r="H722" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="724" spans="1:8">
       <c r="A724" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="725" spans="1:8">
       <c r="B725" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C725" t="n">
+        <v>2.657</v>
+      </c>
+      <c r="D725" t="s">
+        <v>237</v>
+      </c>
+      <c r="E725" t="s">
+        <v>64</v>
+      </c>
+      <c r="F725" t="s">
+        <v>607</v>
+      </c>
+      <c r="G725" t="s">
         <v>1267</v>
       </c>
-      <c r="C725" t="n">
-        <v>2.946</v>
-      </c>
-      <c r="D725" t="s">
-        <v>58</v>
-      </c>
-      <c r="E725" t="s">
-        <v>58</v>
-      </c>
-      <c r="F725" t="s">
-        <v>59</v>
-      </c>
-      <c r="G725" t="s">
-        <v>60</v>
-      </c>
       <c r="H725" t="s">
-        <v>1268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="727" spans="1:8">
       <c r="A727" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="728" spans="1:8">
       <c r="B728" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C728" t="n">
-        <v>2.462</v>
+        <v>2.171</v>
       </c>
       <c r="D728" t="s">
-        <v>1271</v>
+        <v>237</v>
       </c>
       <c r="E728" t="s">
-        <v>1272</v>
+        <v>606</v>
       </c>
       <c r="F728" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G728" t="s">
-        <v>855</v>
+        <v>238</v>
       </c>
       <c r="H728" t="s">
-        <v>1028</v>
+        <v>75</v>
       </c>
     </row>
     <row r="730" spans="1:8">
       <c r="A730" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="731" spans="1:8">
       <c r="B731" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C731" t="n">
-        <v>3.611</v>
+        <v>2.946</v>
       </c>
       <c r="D731" t="s">
-        <v>1275</v>
+        <v>58</v>
       </c>
       <c r="E731" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="F731" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="G731" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H731" t="s">
-        <v>30</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="733" spans="1:8">
       <c r="A733" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="734" spans="1:8">
       <c r="B734" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C734" t="n">
-        <v>3.3347</v>
+        <v>2.462</v>
       </c>
       <c r="D734" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E734" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F734" t="s">
-        <v>1280</v>
+        <v>184</v>
       </c>
       <c r="G734" t="s">
-        <v>30</v>
+        <v>855</v>
       </c>
       <c r="H734" t="s">
-        <v>1093</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="736" spans="1:8">
       <c r="A736" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="737" spans="1:8">
       <c r="B737" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C737" t="n">
-        <v>3.429</v>
+        <v>3.611</v>
       </c>
       <c r="D737" t="s">
-        <v>287</v>
+        <v>1279</v>
       </c>
       <c r="E737" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F737" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="G737" t="s">
         <v>30</v>
@@ -13805,55 +13826,55 @@
     </row>
     <row r="739" spans="1:8">
       <c r="A739" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="740" spans="1:8">
       <c r="B740" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C740" t="n">
+        <v>3.3347</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F740" t="s">
         <v>1284</v>
       </c>
-      <c r="C740" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="D740" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E740" t="s">
-        <v>929</v>
-      </c>
-      <c r="F740" t="s">
-        <v>75</v>
-      </c>
       <c r="G740" t="s">
         <v>30</v>
       </c>
       <c r="H740" t="s">
-        <v>30</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="742" spans="1:8">
       <c r="A742" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="743" spans="1:8">
       <c r="B743" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C743" t="n">
-        <v>3.333</v>
+        <v>3.429</v>
       </c>
       <c r="D743" t="s">
-        <v>666</v>
+        <v>287</v>
       </c>
       <c r="E743" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F743" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G743" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="H743" t="s">
         <v>30</v>
@@ -13861,24 +13882,24 @@
     </row>
     <row r="745" spans="1:8">
       <c r="A745" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="746" spans="1:8">
       <c r="B746" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C746" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="D746" t="s">
         <v>1289</v>
       </c>
-      <c r="C746" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D746" t="s">
-        <v>1290</v>
-      </c>
       <c r="E746" t="s">
-        <v>72</v>
+        <v>929</v>
       </c>
       <c r="F746" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G746" t="s">
         <v>30</v>
@@ -13889,27 +13910,27 @@
     </row>
     <row r="748" spans="1:8">
       <c r="A748" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="749" spans="1:8">
       <c r="B749" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C749" t="n">
-        <v>3.454</v>
+        <v>3.333</v>
       </c>
       <c r="D749" t="s">
-        <v>446</v>
+        <v>666</v>
       </c>
       <c r="E749" t="s">
-        <v>325</v>
+        <v>184</v>
       </c>
       <c r="F749" t="s">
         <v>30</v>
       </c>
       <c r="G749" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="H749" t="s">
         <v>30</v>
@@ -13917,21 +13938,21 @@
     </row>
     <row r="751" spans="1:8">
       <c r="A751" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="752" spans="1:8">
       <c r="B752" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C752" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D752" t="s">
         <v>1294</v>
       </c>
-      <c r="C752" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D752" t="s">
-        <v>1295</v>
-      </c>
       <c r="E752" t="s">
-        <v>616</v>
+        <v>72</v>
       </c>
       <c r="F752" t="s">
         <v>30</v>
@@ -13945,21 +13966,21 @@
     </row>
     <row r="754" spans="1:8">
       <c r="A754" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="755" spans="1:8">
       <c r="B755" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C755" t="n">
-        <v>4</v>
+        <v>3.454</v>
       </c>
       <c r="D755" t="s">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="E755" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="F755" t="s">
         <v>30</v>
@@ -13973,21 +13994,21 @@
     </row>
     <row r="757" spans="1:8">
       <c r="A757" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="758" spans="1:8">
       <c r="B758" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C758" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D758" t="s">
         <v>1299</v>
       </c>
-      <c r="C758" t="n">
-        <v>4</v>
-      </c>
-      <c r="D758" t="s">
-        <v>67</v>
-      </c>
       <c r="E758" t="s">
-        <v>30</v>
+        <v>616</v>
       </c>
       <c r="F758" t="s">
         <v>30</v>
@@ -14006,16 +14027,16 @@
     </row>
     <row r="761" spans="1:8">
       <c r="B761" t="s">
-        <v>1159</v>
+        <v>1301</v>
       </c>
       <c r="C761" t="n">
-        <v>3.714</v>
+        <v>4</v>
       </c>
       <c r="D761" t="s">
-        <v>640</v>
+        <v>67</v>
       </c>
       <c r="E761" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F761" t="s">
         <v>30</v>
@@ -14029,12 +14050,12 @@
     </row>
     <row r="763" spans="1:8">
       <c r="A763" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="764" spans="1:8">
       <c r="B764" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C764" t="n">
         <v>4</v>
@@ -14057,21 +14078,21 @@
     </row>
     <row r="766" spans="1:8">
       <c r="A766" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="767" spans="1:8">
       <c r="B767" t="s">
-        <v>1304</v>
+        <v>1163</v>
       </c>
       <c r="C767" t="n">
-        <v>4</v>
+        <v>3.714</v>
       </c>
       <c r="D767" t="s">
-        <v>67</v>
+        <v>640</v>
       </c>
       <c r="E767" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F767" t="s">
         <v>30</v>
@@ -14090,16 +14111,16 @@
     </row>
     <row r="770" spans="1:8">
       <c r="B770" t="s">
-        <v>1117</v>
+        <v>1306</v>
       </c>
       <c r="C770" t="n">
-        <v>3.927</v>
+        <v>4</v>
       </c>
       <c r="D770" t="s">
-        <v>1306</v>
+        <v>67</v>
       </c>
       <c r="E770" t="s">
-        <v>1307</v>
+        <v>30</v>
       </c>
       <c r="F770" t="s">
         <v>30</v>
@@ -14113,198 +14134,157 @@
     </row>
     <row r="772" spans="1:8">
       <c r="A772" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="773" spans="1:8">
       <c r="B773" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C773" t="n">
+        <v>4</v>
+      </c>
+      <c r="D773" t="s">
+        <v>67</v>
+      </c>
+      <c r="E773" t="s">
+        <v>30</v>
+      </c>
+      <c r="F773" t="s">
+        <v>30</v>
+      </c>
+      <c r="G773" t="s">
+        <v>30</v>
+      </c>
+      <c r="H773" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775" t="s">
         <v>1309</v>
       </c>
-      <c r="C773" t="n">
-        <v>2.921</v>
-      </c>
-      <c r="D773" t="s">
-        <v>193</v>
-      </c>
-      <c r="E773" t="s">
+    </row>
+    <row r="776" spans="1:8">
+      <c r="B776" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C776" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="D776" t="s">
         <v>1310</v>
       </c>
-      <c r="F773" t="s">
-        <v>924</v>
-      </c>
-      <c r="G773" t="s">
+      <c r="E776" t="s">
         <v>1311</v>
       </c>
-      <c r="H773" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="774" spans="1:8">
-      <c r="B774" t="s">
+      <c r="F776" t="s">
+        <v>30</v>
+      </c>
+      <c r="G776" t="s">
+        <v>30</v>
+      </c>
+      <c r="H776" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778" t="s">
         <v>1312</v>
-      </c>
-      <c r="C774" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="D774" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E774" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F774" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G774" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H774" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="776" spans="1:8">
-      <c r="A776" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="777" spans="1:8">
-      <c r="B777" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C777" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="D777" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E777" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F777" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G777" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H777" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="778" spans="1:8">
-      <c r="B778" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C778" t="n">
-        <v>2.754</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E778" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F778" t="s">
-        <v>184</v>
-      </c>
-      <c r="G778" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H778" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="779" spans="1:8">
       <c r="B779" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="C779" t="n">
-        <v>3.108</v>
+        <v>2.921</v>
       </c>
       <c r="D779" t="s">
-        <v>1329</v>
+        <v>193</v>
       </c>
       <c r="E779" t="s">
-        <v>650</v>
+        <v>1314</v>
       </c>
       <c r="F779" t="s">
-        <v>1330</v>
+        <v>924</v>
       </c>
       <c r="G779" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H779" t="s">
-        <v>541</v>
+        <v>30</v>
       </c>
     </row>
     <row r="780" spans="1:8">
       <c r="B780" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="C780" t="n">
-        <v>2.836</v>
+        <v>2.93</v>
       </c>
       <c r="D780" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="E780" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="F780" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G780" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H780" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782" t="s">
         <v>1321</v>
       </c>
-      <c r="G780" t="s">
-        <v>681</v>
-      </c>
-      <c r="H780" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="781" spans="1:8">
-      <c r="B781" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C781" t="n">
-        <v>2.7605</v>
-      </c>
-      <c r="D781" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E781" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F781" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G781" t="s">
-        <v>633</v>
-      </c>
-      <c r="H781" t="s">
-        <v>633</v>
-      </c>
     </row>
     <row r="783" spans="1:8">
-      <c r="A783" t="s">
-        <v>1339</v>
+      <c r="B783" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C783" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G783" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H783" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="784" spans="1:8">
       <c r="B784" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="C784" t="n">
-        <v>2.824</v>
+        <v>2.754</v>
       </c>
       <c r="D784" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="E784" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="F784" t="s">
-        <v>1343</v>
+        <v>184</v>
       </c>
       <c r="G784" t="s">
-        <v>590</v>
+        <v>1331</v>
       </c>
       <c r="H784" t="s">
         <v>30</v>
@@ -14312,326 +14292,367 @@
     </row>
     <row r="785" spans="1:8">
       <c r="B785" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C785" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E785" t="s">
+        <v>650</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G785" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H785" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="B786" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C786" t="n">
+        <v>2.836</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G786" t="s">
+        <v>681</v>
+      </c>
+      <c r="H786" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="B787" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2.7605</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G787" t="s">
+        <v>633</v>
+      </c>
+      <c r="H787" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="B790" t="s">
         <v>1344</v>
       </c>
-      <c r="C785" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="D785" t="s">
+      <c r="C790" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="D790" t="s">
         <v>1345</v>
       </c>
-      <c r="E785" t="s">
-        <v>325</v>
-      </c>
-      <c r="F785" t="s">
-        <v>75</v>
-      </c>
-      <c r="G785" t="s">
-        <v>30</v>
-      </c>
-      <c r="H785" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="787" spans="1:8">
-      <c r="A787" t="s">
+      <c r="E790" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="788" spans="1:8">
-      <c r="B788" t="s">
+      <c r="F790" t="s">
         <v>1347</v>
       </c>
-      <c r="C788" t="n">
-        <v>2.767</v>
-      </c>
-      <c r="D788" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E788" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F788" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G788" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H788" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="790" spans="1:8">
-      <c r="A790" t="s">
-        <v>1353</v>
+      <c r="G790" t="s">
+        <v>590</v>
+      </c>
+      <c r="H790" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="791" spans="1:8">
       <c r="B791" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="C791" t="n">
-        <v>2.8105</v>
+        <v>3.169</v>
       </c>
       <c r="D791" t="s">
-        <v>485</v>
+        <v>1349</v>
       </c>
       <c r="E791" t="s">
-        <v>1355</v>
+        <v>325</v>
       </c>
       <c r="F791" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="G791" t="s">
-        <v>339</v>
+        <v>30</v>
       </c>
       <c r="H791" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="792" spans="1:8">
-      <c r="B792" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C792" t="n">
-        <v>2.4615</v>
-      </c>
-      <c r="D792" t="s">
-        <v>736</v>
-      </c>
-      <c r="E792" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F792" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G792" t="s">
-        <v>1360</v>
-      </c>
-      <c r="H792" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="793" spans="1:8">
-      <c r="B793" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C793" t="n">
-        <v>2.733</v>
-      </c>
-      <c r="D793" t="s">
-        <v>863</v>
-      </c>
-      <c r="E793" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F793" t="s">
-        <v>312</v>
-      </c>
-      <c r="G793" t="s">
-        <v>215</v>
-      </c>
-      <c r="H793" t="s">
-        <v>151</v>
+      <c r="A793" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="794" spans="1:8">
       <c r="B794" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C794" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G794" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H794" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="B797" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C797" t="n">
+        <v>2.8105</v>
+      </c>
+      <c r="D797" t="s">
+        <v>485</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F797" t="s">
+        <v>184</v>
+      </c>
+      <c r="G797" t="s">
+        <v>339</v>
+      </c>
+      <c r="H797" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="B798" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C798" t="n">
+        <v>2.4615</v>
+      </c>
+      <c r="D798" t="s">
+        <v>736</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F798" t="s">
         <v>1363</v>
       </c>
-      <c r="C794" t="n">
-        <v>2.8733</v>
-      </c>
-      <c r="D794" t="s">
+      <c r="G798" t="s">
         <v>1364</v>
       </c>
-      <c r="E794" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F794" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G794" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H794" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="795" spans="1:8">
-      <c r="B795" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C795" t="n">
-        <v>2.687</v>
-      </c>
-      <c r="D795" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E795" t="s">
-        <v>730</v>
-      </c>
-      <c r="F795" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G795" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H795" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="796" spans="1:8">
-      <c r="B796" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C796" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="D796" t="s">
-        <v>184</v>
-      </c>
-      <c r="E796" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F796" t="s">
-        <v>54</v>
-      </c>
-      <c r="G796" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H796" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="798" spans="1:8">
-      <c r="A798" t="s">
-        <v>1375</v>
+      <c r="H798" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="799" spans="1:8">
       <c r="B799" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
       <c r="C799" t="n">
-        <v>2.625</v>
+        <v>2.733</v>
       </c>
       <c r="D799" t="s">
-        <v>630</v>
+        <v>863</v>
       </c>
       <c r="E799" t="s">
-        <v>227</v>
+        <v>1366</v>
       </c>
       <c r="F799" t="s">
-        <v>1376</v>
+        <v>312</v>
       </c>
       <c r="G799" t="s">
-        <v>533</v>
+        <v>215</v>
       </c>
       <c r="H799" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
     </row>
     <row r="800" spans="1:8">
       <c r="B800" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="C800" t="n">
-        <v>2.696</v>
+        <v>2.8733</v>
       </c>
       <c r="D800" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="E800" t="s">
-        <v>384</v>
+        <v>1369</v>
       </c>
       <c r="F800" t="s">
-        <v>263</v>
+        <v>1370</v>
       </c>
       <c r="G800" t="s">
-        <v>1379</v>
+        <v>1195</v>
       </c>
       <c r="H800" t="s">
-        <v>424</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="801" spans="1:8">
       <c r="B801" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C801" t="n">
+        <v>2.687</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E801" t="s">
+        <v>730</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G801" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H801" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="B802" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C802" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="D802" t="s">
+        <v>184</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F802" t="s">
+        <v>54</v>
+      </c>
+      <c r="G802" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H802" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="B805" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C805" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D805" t="s">
+        <v>630</v>
+      </c>
+      <c r="E805" t="s">
+        <v>227</v>
+      </c>
+      <c r="F805" t="s">
         <v>1380</v>
       </c>
-      <c r="C801" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="D801" t="s">
-        <v>864</v>
-      </c>
-      <c r="E801" t="s">
+      <c r="G805" t="s">
+        <v>533</v>
+      </c>
+      <c r="H805" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8">
+      <c r="B806" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C806" t="n">
+        <v>2.696</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E806" t="s">
         <v>384</v>
       </c>
-      <c r="F801" t="s">
-        <v>186</v>
-      </c>
-      <c r="G801" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H801" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="803" spans="1:8">
-      <c r="A803" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="804" spans="1:8">
-      <c r="B804" t="s">
+      <c r="F806" t="s">
+        <v>263</v>
+      </c>
+      <c r="G806" t="s">
         <v>1383</v>
       </c>
-      <c r="C804" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D804" t="s">
-        <v>227</v>
-      </c>
-      <c r="E804" t="s">
-        <v>227</v>
-      </c>
-      <c r="F804" t="s">
-        <v>30</v>
-      </c>
-      <c r="G804" t="s">
-        <v>30</v>
-      </c>
-      <c r="H804" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="806" spans="1:8">
-      <c r="A806" t="s">
-        <v>1384</v>
+      <c r="H806" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="807" spans="1:8">
       <c r="B807" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C807" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="D807" t="s">
+        <v>864</v>
+      </c>
+      <c r="E807" t="s">
+        <v>384</v>
+      </c>
+      <c r="F807" t="s">
+        <v>186</v>
+      </c>
+      <c r="G807" t="s">
         <v>1385</v>
       </c>
-      <c r="C807" t="n">
-        <v>2.824</v>
-      </c>
-      <c r="D807" t="s">
-        <v>589</v>
-      </c>
-      <c r="E807" t="s">
-        <v>249</v>
-      </c>
-      <c r="F807" t="s">
-        <v>589</v>
-      </c>
-      <c r="G807" t="s">
-        <v>30</v>
-      </c>
       <c r="H807" t="s">
-        <v>646</v>
+        <v>151</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -14644,16 +14665,16 @@
         <v>1387</v>
       </c>
       <c r="C810" t="n">
-        <v>3.233</v>
+        <v>3.5</v>
       </c>
       <c r="D810" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="E810" t="s">
-        <v>1388</v>
+        <v>227</v>
       </c>
       <c r="F810" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="G810" t="s">
         <v>30</v>
@@ -14664,30 +14685,30 @@
     </row>
     <row r="812" spans="1:8">
       <c r="A812" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="813" spans="1:8">
       <c r="B813" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C813" t="n">
-        <v>3.27</v>
+        <v>2.824</v>
       </c>
       <c r="D813" t="s">
-        <v>57</v>
+        <v>589</v>
       </c>
       <c r="E813" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="F813" t="s">
-        <v>59</v>
+        <v>589</v>
       </c>
       <c r="G813" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H813" t="s">
-        <v>30</v>
+        <v>646</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -14697,19 +14718,19 @@
     </row>
     <row r="816" spans="1:8">
       <c r="B816" t="s">
-        <v>1324</v>
+        <v>1391</v>
       </c>
       <c r="C816" t="n">
-        <v>3.737</v>
+        <v>3.233</v>
       </c>
       <c r="D816" t="s">
-        <v>1391</v>
+        <v>184</v>
       </c>
       <c r="E816" t="s">
-        <v>195</v>
+        <v>1392</v>
       </c>
       <c r="F816" t="s">
-        <v>910</v>
+        <v>215</v>
       </c>
       <c r="G816" t="s">
         <v>30</v>
@@ -14720,27 +14741,27 @@
     </row>
     <row r="818" spans="1:8">
       <c r="A818" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="819" spans="1:8">
       <c r="B819" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C819" t="n">
-        <v>3.375</v>
+        <v>3.27</v>
       </c>
       <c r="D819" t="s">
-        <v>1373</v>
+        <v>57</v>
       </c>
       <c r="E819" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="F819" t="s">
-        <v>633</v>
+        <v>59</v>
       </c>
       <c r="G819" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H819" t="s">
         <v>30</v>
@@ -14753,22 +14774,22 @@
     </row>
     <row r="822" spans="1:8">
       <c r="B822" t="s">
-        <v>1383</v>
+        <v>1328</v>
       </c>
       <c r="C822" t="n">
-        <v>3.395</v>
+        <v>3.737</v>
       </c>
       <c r="D822" t="s">
         <v>1395</v>
       </c>
       <c r="E822" t="s">
-        <v>1048</v>
+        <v>195</v>
       </c>
       <c r="F822" t="s">
-        <v>759</v>
+        <v>910</v>
       </c>
       <c r="G822" t="s">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="H822" t="s">
         <v>30</v>
@@ -14784,16 +14805,16 @@
         <v>1397</v>
       </c>
       <c r="C825" t="n">
-        <v>3.647</v>
+        <v>3.375</v>
       </c>
       <c r="D825" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="E825" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F825" t="s">
-        <v>30</v>
+        <v>633</v>
       </c>
       <c r="G825" t="s">
         <v>30</v>
@@ -14804,21 +14825,21 @@
     </row>
     <row r="827" spans="1:8">
       <c r="A827" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="828" spans="1:8">
       <c r="B828" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C828" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D828" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="E828" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="F828" t="s">
         <v>30</v>
@@ -14832,27 +14853,27 @@
     </row>
     <row r="830" spans="1:8">
       <c r="A830" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="831" spans="1:8">
       <c r="B831" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="C831" t="n">
-        <v>3.9145</v>
+        <v>3.395</v>
       </c>
       <c r="D831" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E831" t="s">
-        <v>381</v>
+        <v>1050</v>
       </c>
       <c r="F831" t="s">
-        <v>30</v>
+        <v>759</v>
       </c>
       <c r="G831" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="H831" t="s">
         <v>30</v>
@@ -14860,49 +14881,49 @@
     </row>
     <row r="833" spans="1:8">
       <c r="A833" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="834" spans="1:8">
       <c r="B834" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C834" t="n">
-        <v>3.4955</v>
+        <v>3.647</v>
       </c>
       <c r="D834" t="s">
-        <v>436</v>
+        <v>1404</v>
       </c>
       <c r="E834" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F834" t="s">
-        <v>1059</v>
+        <v>30</v>
       </c>
       <c r="G834" t="s">
         <v>30</v>
       </c>
       <c r="H834" t="s">
-        <v>556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="836" spans="1:8">
       <c r="A836" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="837" spans="1:8">
       <c r="B837" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="C837" t="n">
-        <v>3.895</v>
+        <v>4</v>
       </c>
       <c r="D837" t="s">
-        <v>1131</v>
+        <v>67</v>
       </c>
       <c r="E837" t="s">
-        <v>630</v>
+        <v>30</v>
       </c>
       <c r="F837" t="s">
         <v>30</v>
@@ -14924,13 +14945,13 @@
         <v>1408</v>
       </c>
       <c r="C840" t="n">
-        <v>3.453</v>
+        <v>3.9145</v>
       </c>
       <c r="D840" t="s">
-        <v>446</v>
+        <v>1409</v>
       </c>
       <c r="E840" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="F840" t="s">
         <v>30</v>
@@ -14944,294 +14965,406 @@
     </row>
     <row r="842" spans="1:8">
       <c r="A842" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="843" spans="1:8">
       <c r="B843" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="C843" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D843" t="s">
+        <v>510</v>
+      </c>
+      <c r="E843" t="s">
+        <v>510</v>
+      </c>
+      <c r="F843" t="s">
+        <v>290</v>
+      </c>
+      <c r="G843" t="s">
+        <v>30</v>
+      </c>
+      <c r="H843" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8">
+      <c r="A845" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8">
+      <c r="B846" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3.4955</v>
+      </c>
+      <c r="D846" t="s">
+        <v>436</v>
+      </c>
+      <c r="E846" t="s">
+        <v>227</v>
+      </c>
+      <c r="F846" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G846" t="s">
+        <v>30</v>
+      </c>
+      <c r="H846" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8">
+      <c r="B849" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C849" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E849" t="s">
+        <v>630</v>
+      </c>
+      <c r="F849" t="s">
+        <v>30</v>
+      </c>
+      <c r="G849" t="s">
+        <v>30</v>
+      </c>
+      <c r="H849" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8">
+      <c r="A851" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8">
+      <c r="B852" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C852" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="D852" t="s">
+        <v>446</v>
+      </c>
+      <c r="E852" t="s">
+        <v>325</v>
+      </c>
+      <c r="F852" t="s">
+        <v>30</v>
+      </c>
+      <c r="G852" t="s">
+        <v>30</v>
+      </c>
+      <c r="H852" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8">
+      <c r="A854" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8">
+      <c r="B855" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C855" t="n">
         <v>3.408</v>
       </c>
-      <c r="D843" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E843" t="s">
+      <c r="D855" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E855" t="s">
         <v>144</v>
       </c>
-      <c r="F843" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G843" t="s">
-        <v>30</v>
-      </c>
-      <c r="H843" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="844" spans="1:8">
-      <c r="B844" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C844" t="n">
+      <c r="F855" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G855" t="s">
+        <v>30</v>
+      </c>
+      <c r="H855" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8">
+      <c r="B856" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C856" t="n">
         <v>3.269</v>
       </c>
-      <c r="D844" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E844" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F844" t="s">
+      <c r="D856" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F856" t="s">
         <v>75</v>
       </c>
-      <c r="G844" t="s">
+      <c r="G856" t="s">
         <v>537</v>
       </c>
-      <c r="H844" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="846" spans="1:8">
-      <c r="A846" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="847" spans="1:8">
-      <c r="B847" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C847" t="n">
+      <c r="H856" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8">
+      <c r="A858" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8">
+      <c r="B859" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C859" t="n">
         <v>3.1525</v>
       </c>
-      <c r="D847" t="s">
+      <c r="D859" t="s">
         <v>861</v>
       </c>
-      <c r="E847" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F847" t="s">
+      <c r="E859" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F859" t="s">
         <v>831</v>
       </c>
-      <c r="G847" t="s">
+      <c r="G859" t="s">
         <v>367</v>
       </c>
-      <c r="H847" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="848" spans="1:8">
-      <c r="B848" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C848" t="n">
-        <v>3.036</v>
-      </c>
-      <c r="D848" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E848" t="s">
-        <v>72</v>
-      </c>
-      <c r="F848" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G848" t="s">
-        <v>339</v>
-      </c>
-      <c r="H848" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="850" spans="1:8">
-      <c r="A850" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="851" spans="1:8">
-      <c r="B851" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C851" t="n">
-        <v>3.672</v>
-      </c>
-      <c r="D851" t="s">
-        <v>297</v>
-      </c>
-      <c r="E851" t="s">
-        <v>753</v>
-      </c>
-      <c r="F851" t="s">
-        <v>30</v>
-      </c>
-      <c r="G851" t="s">
-        <v>151</v>
-      </c>
-      <c r="H851" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="853" spans="1:8">
-      <c r="A853" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="854" spans="1:8">
-      <c r="B854" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C854" t="n">
-        <v>3.9565</v>
-      </c>
-      <c r="D854" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E854" t="s">
-        <v>385</v>
-      </c>
-      <c r="F854" t="s">
-        <v>30</v>
-      </c>
-      <c r="G854" t="s">
-        <v>30</v>
-      </c>
-      <c r="H854" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="856" spans="1:8">
-      <c r="A856" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="857" spans="1:8">
-      <c r="B857" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C857" t="n">
-        <v>3.437</v>
-      </c>
-      <c r="D857" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E857" t="s">
-        <v>694</v>
-      </c>
-      <c r="F857" t="s">
-        <v>508</v>
-      </c>
-      <c r="G857" t="s">
-        <v>30</v>
-      </c>
-      <c r="H857" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="859" spans="1:8">
-      <c r="A859" t="s">
-        <v>1426</v>
+      <c r="H859" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="860" spans="1:8">
       <c r="B860" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="C860" t="n">
-        <v>3.638</v>
+        <v>3.036</v>
       </c>
       <c r="D860" t="s">
-        <v>1428</v>
+        <v>1289</v>
       </c>
       <c r="E860" t="s">
-        <v>1429</v>
+        <v>72</v>
       </c>
       <c r="F860" t="s">
-        <v>30</v>
+        <v>1426</v>
       </c>
       <c r="G860" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="H860" t="s">
-        <v>30</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="862" spans="1:8">
       <c r="A862" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="863" spans="1:8">
       <c r="B863" t="s">
-        <v>1405</v>
+        <v>1420</v>
       </c>
       <c r="C863" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="D863" t="s">
+        <v>297</v>
+      </c>
+      <c r="E863" t="s">
+        <v>753</v>
+      </c>
+      <c r="F863" t="s">
+        <v>30</v>
+      </c>
+      <c r="G863" t="s">
+        <v>151</v>
+      </c>
+      <c r="H863" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8">
+      <c r="A865" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8">
+      <c r="B866" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C866" t="n">
+        <v>3.9565</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E866" t="s">
+        <v>385</v>
+      </c>
+      <c r="F866" t="s">
+        <v>30</v>
+      </c>
+      <c r="G866" t="s">
+        <v>30</v>
+      </c>
+      <c r="H866" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
+      <c r="A868" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8">
+      <c r="B869" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C869" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E869" t="s">
+        <v>694</v>
+      </c>
+      <c r="F869" t="s">
+        <v>508</v>
+      </c>
+      <c r="G869" t="s">
+        <v>30</v>
+      </c>
+      <c r="H869" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8">
+      <c r="A871" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8">
+      <c r="B872" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C872" t="n">
+        <v>3.638</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F872" t="s">
+        <v>30</v>
+      </c>
+      <c r="G872" t="s">
+        <v>30</v>
+      </c>
+      <c r="H872" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8">
+      <c r="A874" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8">
+      <c r="B875" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C875" t="n">
         <v>4</v>
       </c>
-      <c r="D863" t="s">
+      <c r="D875" t="s">
         <v>67</v>
       </c>
-      <c r="E863" t="s">
-        <v>30</v>
-      </c>
-      <c r="F863" t="s">
-        <v>30</v>
-      </c>
-      <c r="G863" t="s">
-        <v>30</v>
-      </c>
-      <c r="H863" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="864" spans="1:8">
-      <c r="B864" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C864" t="n">
+      <c r="E875" t="s">
+        <v>30</v>
+      </c>
+      <c r="F875" t="s">
+        <v>30</v>
+      </c>
+      <c r="G875" t="s">
+        <v>30</v>
+      </c>
+      <c r="H875" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8">
+      <c r="B876" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C876" t="n">
         <v>4</v>
       </c>
-      <c r="D864" t="s">
+      <c r="D876" t="s">
         <v>67</v>
       </c>
-      <c r="E864" t="s">
-        <v>30</v>
-      </c>
-      <c r="F864" t="s">
-        <v>30</v>
-      </c>
-      <c r="G864" t="s">
-        <v>30</v>
-      </c>
-      <c r="H864" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="866" spans="1:8">
-      <c r="A866" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="867" spans="1:8">
-      <c r="B867" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C867" t="n">
+      <c r="E876" t="s">
+        <v>30</v>
+      </c>
+      <c r="F876" t="s">
+        <v>30</v>
+      </c>
+      <c r="G876" t="s">
+        <v>30</v>
+      </c>
+      <c r="H876" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8">
+      <c r="A878" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8">
+      <c r="B879" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C879" t="n">
         <v>3.875</v>
       </c>
-      <c r="D867" t="s">
+      <c r="D879" t="s">
         <v>284</v>
       </c>
-      <c r="E867" t="s">
+      <c r="E879" t="s">
         <v>187</v>
       </c>
-      <c r="F867" t="s">
-        <v>30</v>
-      </c>
-      <c r="G867" t="s">
-        <v>30</v>
-      </c>
-      <c r="H867" t="s">
+      <c r="F879" t="s">
+        <v>30</v>
+      </c>
+      <c r="G879" t="s">
+        <v>30</v>
+      </c>
+      <c r="H879" t="s">
         <v>30</v>
       </c>
     </row>
